--- a/四书系统BUG及需求不符及系统优化.xlsx
+++ b/四书系统BUG及需求不符及系统优化.xlsx
@@ -1,266 +1,530 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenweibo/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC766A-F4E4-D545-BE2A-901374362EA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否重要</t>
   </si>
   <si>
     <t>是否解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
   </si>
   <si>
     <t>《保密工作责任书》由保密委“确认”后，应盖上保密委印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>《员工保密承诺书》中“负责人”位置的印章应该去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《涉密人员保证书》中，封面缺少“部门印章”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>承诺人选择的时候，一个部门只能选1个人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审核失败后，流程不会重置，原有的签名没有消失，新签名也没用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“签约成功，无法修改”的字，底色改为绿色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字改为“签约成功”，底色绿色。</t>
+  </si>
+  <si>
+    <t>页面还不能自动刷新，建议切换页面自动刷新。</t>
+  </si>
+  <si>
+    <t>账号切换后，各页面都要自动刷新。</t>
+  </si>
+  <si>
+    <t>建议后台审核不要用下拉框的方式，并增加“批量审核”功能</t>
   </si>
   <si>
     <t>短信记录需要保留，可查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信接口：http://61.130.108.55:53110/</t>
   </si>
   <si>
     <t>不允许用户用姓名登录，只允许用手机号登录（员工的手机号不能重复）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户增加工号字段，可使用工号登录。</t>
   </si>
   <si>
     <t>登录界面不够美观，需要重新设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以加上图片等内容，不要太单薄。</t>
+  </si>
+  <si>
+    <t>微信端的“协议下载”去掉，后台不需要的功能也去掉不要显示。</t>
+  </si>
+  <si>
+    <t>微信端界面，放一张底图使图片更美观</t>
   </si>
   <si>
     <t>“部门员工签约审批”存在“待部门负责人签约”的项目时，菜单加红色圆点提醒，“待签约”菜单同样。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即有新的内容的页签，需要在底下页签名上加红色小圆点。</t>
   </si>
   <si>
     <t>微信小程序预览PDF界面，不要菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要右边那个三角形菜单，其他的菜单无所谓。主要那个三角形菜单里有打开、下载等功能，不合适。</t>
   </si>
   <si>
     <t>没有员工的情况下，删除部门依然提示“该部门下有员工，无法删除。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建的协议，会出现手机端无法预览PDF的问题，需要等重新启动微信才能看见。</t>
+  </si>
+  <si>
+    <t>★</t>
   </si>
   <si>
     <t>保密工作责任书，已经签约完成了，保密委的待签约里还是有。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信端界面，放一张底图使图片更美观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建的协议，会出现手机端无法预览PDF的问题，需要等重新启动微信才能看见。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小程序端列表最下方的横线上，统一用“END”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台“协议审核“界面优化，员工可能有几千，容易数据量太大卡死</t>
+  </si>
+  <si>
+    <t>保密工作责任书，“保密委审核”的工作改到PC端后台进行（和《涉密人员保证书》流程相同即可）。</t>
   </si>
   <si>
     <t>微信端协议书预览时间从30秒改为10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>员工增加“工号”字段，员工姓名可以重名，员工可通过工号登陆（工号可以为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保密委印章位置偏了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有盖章要盖正</t>
   </si>
   <si>
     <t>《保密工作责任书》，负责人签名后，在签名位置盖上该部门的“部门章”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《员工保密承诺书》，负责人“统一签约”需要该部门所有人都签约之后才能签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信端状态应与后台状态统一，字数不要太长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信端“我的”界面，显示用户的姓名、工号、部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公章实际直径为4cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保密工作责任书，“保密委审核”的工作改到PC端后台进行（和《涉密人员保证书》流程相同即可）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面还不能自动刷新，建议切换页面自动刷新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议后台审核不要用下拉框的方式，并增加“批量审核”功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信端的“协议下载”去掉，后台不需要的功能也去掉不要显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台“协议审核“界面优化，员工可能有几千，容易数据量太大卡死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字改为“签约成功”，底色绿色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号切换后，各页面都要自动刷新。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信接口：http://61.130.108.55:53110/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户增加工号字段，可使用工号登录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以加上图片等内容，不要太单薄。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即有新的内容的页签，需要在底下页签名上加红色小圆点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要右边那个三角形菜单，其他的菜单无所谓。主要那个三角形菜单里有打开、下载等功能，不合适。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有盖章要盖正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《涉密人员保证书》中第十一条，横线上那句承诺的文字，直接写上去。</t>
+  </si>
+  <si>
+    <t>承诺文字内容为“本人工作所涉及所有保密内容。”</t>
   </si>
   <si>
     <t>《保密工作责任书》，宁波市公司的保密委落款为：国网宁波供电公司保密委员会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《涉密人员保证书》中第十一条，横线上那句承诺的文字，直接写上去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承诺文字内容为“本人工作所涉及所有保密内容。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>落款格式同《涉密人员保证书》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,9 +532,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -282,17 +788,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -303,7 +853,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -341,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,7 +926,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,397 +1100,413 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83333333333333" style="1"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="32.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83333333333333" style="1"/>
+    <col min="5" max="5" width="32.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25" spans="1:5">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" spans="1:2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" spans="1:2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="1:2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="38.25" spans="1:3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" spans="1:4">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="38.25" spans="1:4">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" spans="1:3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" ht="38.25" spans="1:2">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" spans="1:2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" spans="1:5">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" ht="38.25" spans="1:5">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>